--- a/mfa/S_cerevisiae/result_files/CENPK_batch/mfa.xlsx
+++ b/mfa/S_cerevisiae/result_files/CENPK_batch/mfa.xlsx
@@ -504,16 +504,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.075478 0.188673 0.251235 0.250811 0.180956 0.05716</t>
+          <t>0.075491 0.188433 0.251416 0.250974 0.180762 0.057029</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.11387096774193521 -2.0633870967741936 -0.90483870967742 1.0691935483870962 1.600000000000002 0.8808064516129034</t>
+          <t>0.11596774193548345 -2.102096774193551 -0.8756451612903253 1.0954838709677364 1.568709677419357 0.859677419354839</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9.568260848074928</v>
+        <v>9.598994042663902</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.49064</v>
+        <v>0.490476</v>
       </c>
     </row>
     <row r="3">
@@ -547,16 +547,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.147969 0.109806 0.259077 0.235971 0.120626 0.127197</t>
+          <t>0.14791 0.110689 0.259274 0.235517 0.121841 0.125786</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.023064516129028465 -0.38645161290322505 -0.16935483870967669 0.030645161290321892 0.21016129032258044 0.3961290322580645</t>
+          <t>0.013548387096774313 -0.2440322580645162 -0.13758064516128915 -0.04258064516128814 0.40612903225806557 0.1685483870967749</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3805829864724234</v>
+        <v>0.2738261966701359</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.4908723999999999</v>
+        <v>0.4904164</v>
       </c>
     </row>
     <row r="4">
@@ -590,16 +590,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.080694 0.124283 0.189045 0.247854 0.175825 0.124578 0.060349</t>
+          <t>0.080694 0.124176 0.189436 0.247618 0.176211 0.12436 0.059684</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.07016129032258142 -1.0354838709677434 -0.6582258064516131 -0.12209677419354963 0.683870967741939 1.0525806451612887 0.43306451612903224</t>
+          <t>0.07016129032258142 -1.052741935483874 -0.5951612903225805 -0.16016129032257967 0.7461290322580676 1.0174193548387087 0.3258064516129034</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.288468678459943</v>
+        <v>3.191057310093662</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.4890364999999999</v>
+        <v>0.4884416666666667</v>
       </c>
     </row>
     <row r="5">
@@ -633,16 +633,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.267453 0.235232 0.01181 0.261161 0.232402</t>
+          <t>0.267446 0.23548 0.007838 0.261383 0.232174</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.020000000000002096 0.4320967741935463 1.3425806451612903 -0.21161290322581217 -0.24338709677419523</t>
+          <t>-0.021129032258063264 0.472096774193546 0.7019354838709677 -0.17580645161290895 -0.2801612903225833</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.093647710718003</v>
+        <v>0.8254334807492207</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.49298575</v>
+        <v>0.49100025</v>
       </c>
     </row>
     <row r="6">
@@ -676,16 +676,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.076921 0.124566 0.189881 0.248961 0.17661 0.125134 0.060619</t>
+          <t>0.076919 0.124459 0.190274 0.248723 0.176997 0.124915 0.05995</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.054677419354839676 -0.8009677419354858 -0.48032258064516264 -0.16693548387096907 0.49967741935483706 0.9203225806451595 0.4077419354838714</t>
+          <t>0.05435483870967806 -0.8182258064516142 -0.4169354838709684 -0.2053225806451607 0.5620967741935465 0.8849999999999987 0.29983870967742043</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.166040842872008</v>
+        <v>2.077521514047866</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.4911725</v>
+        <v>0.4905731666666667</v>
       </c>
     </row>
     <row r="7">
@@ -719,16 +719,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.35212 0.003733 0.001984 0.32244 0.001929 0.001703 0.321173</t>
+          <t>0.352091 0.004158 0.002535 0.322009 0.002481 0.002158 0.321609</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.02080645161290165 0.30870967741935484 0.32 -0.11467741935484148 -0.07967741935483869 0.27467741935483875 0.13145161290322746</t>
+          <t>-0.025483870967740564 0.37725806451612903 0.4088709677419355 -0.18419354838710192 0.009354838709677472 0.3480645161290323 0.20177419354838744</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.3103611862643091</v>
+        <v>0.5060250520291383</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.4863816666666667</v>
+        <v>0.4876038333333333</v>
       </c>
     </row>
     <row r="8">
@@ -762,16 +762,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.254033 0.221796 0.030841 0.246551 0.228723</t>
+          <t>0.253865 0.22207 0.030885 0.246625 0.228716</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.001129032258068 -3.0056451612903246 -2.7483870967741937 -3.0382258064516163 -0.12112903225806479</t>
+          <t>5.974032258064519 -2.9614516129032284 -2.7412903225806455 -3.0262903225806457 -0.12225806451613043</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>61.84657242455782</v>
+        <v>61.14730985952139</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.48450575</v>
+        <v>0.4846447500000001</v>
       </c>
     </row>
     <row r="9">
@@ -805,16 +805,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.51147 0.002586 0.001705 0.484336</t>
+          <t>0.511454 0.003073 0.002194 0.484348</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.005322580645153184 -0.16629032258064513 0.18209677419354836 -0.0054838709677474205</t>
+          <t>0.00274193548386028 -0.08774193548387094 0.2609677419354839 -0.0035483870967777426</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.06087010926118622</v>
+        <v>0.07582291883454731</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.4863346666666666</v>
+        <v>0.486835</v>
       </c>
     </row>
     <row r="10">
@@ -848,16 +848,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.487669 0.001435 0.002106 0.014457 0.002106 0.001435 0.487669</t>
+          <t>0.487687 0.001384 0.00211 0.013232 0.00211 0.001384 0.487687</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.014193548387102016 -0.05806451612903224 0.3396774193548387 0.22274193548387075 -0.36693548387096786 -0.6367741935483872 -0.018548387096770362</t>
+          <t>0.01709677419354758 -0.06629032258064514 0.3403225806451613 0.025161290322580628 -0.36629032258064526 -0.645 -0.015645161290324797</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.7090347294484913</v>
+        <v>0.6715776274713842</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.4984385000000001</v>
+        <v>0.497797</v>
       </c>
     </row>
     <row r="11">
@@ -934,16 +934,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.145184 0.110217 0.260506 0.237277 0.121293 0.127901</t>
+          <t>0.145124 0.111103 0.260701 0.236817 0.122514 0.12648</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.008225806451612177 -0.1124193548387102 -0.156935483870968 -0.25499999999999984 0.3648387096774194 0.5348387096774171</t>
+          <t>-0.0014516129032272583 0.030483870967741085 -0.12548387096774208 -0.32919354838709475 0.5617741935483871 0.3056451612903239</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5215192507804347</v>
+        <v>0.5340551768990629</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.4935473999999999</v>
+        <v>0.4930824</v>
       </c>
     </row>
     <row r="13">
@@ -977,16 +977,16 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.143083 0.110113 0.260533 0.237304 0.121307 0.127915</t>
+          <t>0.143021 0.110998 0.260724 0.23684 0.122526 0.126492</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.033870967741933544 -0.5890322580645165 0.4595161290322565 -0.671290322580645 0.5687096774193551 0.23935483870967955</t>
+          <t>0.023870967741936974 -0.44629032258064605 0.4903225806451592 -0.7461290322580632 0.7653225806451612 0.00983870967742024</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.390613449531738</v>
+        <v>1.582685093652442</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.4935788</v>
+        <v>0.493106</v>
       </c>
     </row>
     <row r="14">
@@ -1020,16 +1020,16 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.486878 0.024255 0.486556</t>
+          <t>0.486799 0.026596 0.486519</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.401290322580641 -0.39129032258064533 -1.3827419354838706</t>
+          <t>1.3885483870967708 -0.01370967741935456 -1.388709677419356</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.028697944849103</v>
+        <v>3.856769146722158</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.4986835</v>
+        <v>0.499817</v>
       </c>
     </row>
     <row r="15">
@@ -1063,16 +1063,16 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.518008 0.003369 0.002022 0.476479</t>
+          <t>0.517991 0.003887 0.00254 0.47649</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.00290322580646347 -0.0891935483870968 0.06935483870967739 -0.0027419354838692333</t>
+          <t>0.0001612903225852832 -0.005645161290322631 0.15290322580645163 -0.0009677419354758854</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.01278152965660776</v>
+        <v>0.02341222684703433</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.47895</v>
+        <v>0.479479</v>
       </c>
     </row>
     <row r="16">
@@ -1106,16 +1106,16 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.135099 0.118029 0.134775 0.241491 0.122005 0.129903 0.113075</t>
+          <t>0.135089 0.118237 0.132936 0.242791 0.120099 0.130239 0.113497</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.025645161290321367 0.42612903225806315 -1.3030645161290328 1.032903225806455 -1.5196774193548366 0.611451612903224 -0.1290322580645176</t>
+          <t>-0.027258064516129433 0.45967741935483736 -1.5996774193548404 1.242580645161293 -1.8270967741935469 0.6656451612903213 -0.06096774193548441</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.647051690946929</v>
+        <v>8.1001040062435</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.4880061666666666</v>
+        <v>0.4875091666666667</v>
       </c>
     </row>
     <row r="17">
@@ -1149,16 +1149,16 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.13964 0.009056 0.360687 0.015557 0.360652 0.007778 0.120163</t>
+          <t>0.139764 0.007156 0.360784 0.011748 0.360749 0.005873 0.120221</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.029032258064518306 0.4841935483870967 -1.468548387096779 0.5961290322580645 1.0845161290322505 0.47193548387096773 1.0435483870967748</t>
+          <t>-0.00903225806451621 0.17774193548387093 -1.4529032258064543 -0.018225806451612946 1.1001612903225753 0.16467741935483862 1.0529032258064503</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.235182023933402</v>
+        <v>4.489012460978142</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.4965961666666667</v>
+        <v>0.4929425</v>
       </c>
     </row>
     <row r="18">
@@ -1192,16 +1192,16 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.132456 0.010888 0.365993 0.020393 0.365974 0.010195 0.121898</t>
+          <t>0.13263 0.008309 0.366247 0.015228 0.366228 0.007613 0.122023</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.06693548387096754 1.0453225806451614 -1.3800000000000014 1.7198387096774195 0.787258064516133 1.012741935483871 1.3651612903225827</t>
+          <t>-0.03887096774193407 0.6293548387096775 -1.3390322580645213 0.886774193548387 0.828225806451613 0.5962903225806452 1.3853225806451634</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9.46851168054112</v>
+        <v>5.937613111342372</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.5083853333333334</v>
+        <v>0.5036003333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1235,16 +1235,16 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.278931 0.220414 0.016173 0.243367 0.219004</t>
+          <t>0.279114 0.215842 0.042598 0.238326 0.227099</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.07080645161290688 1.6733870967741928 -3.708870967741936 1.3166129032258072 -2.776612903225808</t>
+          <t>-0.04129032258065064 0.9359677419354844 0.5532258064516122 0.5035483870967764 -1.4709677419354867</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>26.00401053590012</v>
+        <v>3.60110637356921</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.46471925</v>
+        <v>0.481103</v>
       </c>
     </row>
     <row r="20">
@@ -1278,16 +1278,16 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.144645 0.245318 0.122034 0.135017 0.244131 0.114953</t>
+          <t>0.144607 0.246039 0.120564 0.133582 0.244898 0.115202</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.030483870967741085 -0.5941935483870956 1.7524193548387097 0.02612903225806379 -0.381290322580646 0.15000000000000005</t>
+          <t>0.024354838709679395 -0.47790322580645056 1.5153225806451613 -0.2053225806451607 -0.2575806451612883 0.19016129032258056</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.593533870967741</v>
+        <v>2.66985364203954</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.4891451999999999</v>
+        <v>0.488703</v>
       </c>
     </row>
     <row r="21">
@@ -1321,16 +1321,16 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.144925 0.110195 0.260487 0.23726 0.121284 0.127891</t>
+          <t>0.144865 0.111082 0.260683 0.236801 0.122506 0.126471</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.03693548387096887 -0.6482258064516121 0.27774193548387116 -0.7920967741935482 0.6575806451612899 0.7974193548387103</t>
+          <t>0.027258064516129433 -0.50516129032258 0.30935483870967345 -0.8661290322580623 0.8546774193548384 0.5683870967741934</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1944087408949</v>
+        <v>2.155348231009357</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.493508</v>
+        <v>0.493046</v>
       </c>
     </row>
     <row r="22">
@@ -1364,16 +1364,16 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.154465 0.243478 0.115339 0.140977 0.241981 0.108042</t>
+          <t>0.154428 0.244174 0.113773 0.139607 0.242693 0.108307</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.019677419354836006 -0.3809677419354844 1.056290322580645 -1.482903225806453 0.12854838709677294 1.3500000000000005</t>
+          <t>0.01370967741935512 -0.268709677419355 0.8037096774193551 -1.703870967741934 0.24338709677419074 1.3927419354838717</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.299299531737778</v>
+        <v>5.620485744016645</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.4810442</v>
+        <v>0.4805696</v>
       </c>
     </row>
     <row r="23">
@@ -1407,16 +1407,16 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.520607 0.00684 0.005402 0.467799</t>
+          <t>0.520705 0.003847 0.002128 0.467726</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.03564516129030899 1.103225806451613 -0.9987096774193549 0.035645161290326896</t>
+          <t>-0.019838709677416813 0.6204838709677419 -1.5267741935483872 0.023870967741932498</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.217069354838709</v>
+        <v>2.717003069719043</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.4736803333333333</v>
+        <v>0.470427</v>
       </c>
     </row>
     <row r="24">
@@ -1450,16 +1450,16 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.107252 0.031722 0.094597 0.151768 0.124117 0.12406 0.151823 0.094444 0.030336 0.09275</t>
+          <t>0.107328 0.030953 0.094331 0.15226 0.123569 0.123569 0.152258 0.094271 0.029587 0.093446</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.006129032258063931 -0.03709677419354856 -0.5261290322580647 -1.275645161290327 -0.2772580645161288 0.5404838709677431 0.6159677419354866 0.13419354838709668 0.2222580645161286 1.0598387096774184</t>
+          <t>0.01838709677419403 -0.1611290322580645 -0.5690322580645167 -1.1962903225806463 -0.36564516129032343 0.4612903225806454 0.6861290322580658 0.10629032258064403 0.10145161290322542 1.1720967741935477</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.844571826222698</v>
+        <v>3.99386800208117</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.4936079999999999</v>
+        <v>0.4932967777777778</v>
       </c>
     </row>
     <row r="25">
@@ -1493,16 +1493,16 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.152026 0.110589 0.260511 0.237274 0.121291 0.127899</t>
+          <t>0.151966 0.111476 0.260705 0.236814 0.122512 0.126478</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.03693548387096887 0.7401612903225823 -1.4745161290322555 0.16177419354838773 0.9379032258064518 1.2183870967741968</t>
+          <t>-0.0466129032258083 0.8832258064516143 -1.443225806451606 0.08758064516128838 1.1348387096774195 0.9891935483870989</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.113701248699275</v>
+        <v>5.139194458896968</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.4936184</v>
+        <v>0.4931532000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1536,16 +1536,16 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.493187 0.007924 0.008188 0.492903</t>
+          <t>0.49323 0.006357 0.006681 0.4929</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.179677419354838 0.2698387096774195 0.09274193548387111 -4.187096774193546</t>
+          <t>4.186612903225808 0.01709677419354842 -0.15032258064516124 -4.187580645161284</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>35.08289672216439</v>
+        <v>35.08644843912587</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.501003</v>
+        <v>0.499473</v>
       </c>
     </row>
     <row r="27">
@@ -1579,16 +1579,16 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.354632 0.014378 0.148533 0.148505 0.013076 0.330804</t>
+          <t>0.354675 0.013574 0.148944 0.148915 0.012252 0.330501</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.07854838709677665 1.4343548387096774 0.1704838709677423 -1.4135483870967733 0.9461290322580647 0.5424193548387105</t>
+          <t>-0.07161290322580645 1.3046774193548385 0.23677419354838664 -1.3474193548387097 0.813225806451613 0.49354838709677534</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.280106347554629</v>
+        <v>4.483838735691988</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.4926566</v>
+        <v>0.491944</v>
       </c>
     </row>
     <row r="28">
@@ -1622,16 +1622,16 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.183819 0.02503 0.185063 0.116481 0.11648 0.185019 0.023703 0.166489</t>
+          <t>0.18386 0.024504 0.18476 0.116877 0.116876 0.184717 0.023192 0.166723</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.10693548387096725 -1.3870967741935485 -0.24580645161290285 -2.186129032258066 0.24241935483871038 -0.6459677419354852 2.343709677419355 2.108064516129032</t>
+          <t>0.11354838709677136 -1.4719354838709675 -0.294677419354838 -2.122258064516132 0.3062903225806448 -0.6946774193548396 2.2612903225806456 2.145806451612905</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>17.18800613943809</v>
+        <v>17.06461110822062</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.4918935714285715</v>
+        <v>0.4917081428571429</v>
       </c>
     </row>
     <row r="29">
@@ -1665,16 +1665,16 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.440089 0.064387 0.06424 0.439942</t>
+          <t>0.440452 0.06156 0.061528 0.44042</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.04435483870967254 1.9748387096774191 -0.33887096774193415 -0.19516129032257887</t>
+          <t>0.014193548387102016 1.5188709677419348 -0.7762903225806448 -0.11806451612903394</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.054876742976063</v>
+        <v>2.923736368366283</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.504231</v>
+        <v>0.5019586666666666</v>
       </c>
     </row>
     <row r="30">
@@ -1708,16 +1708,16 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.266867 0.13684 0.215605 0.15046 0.232468</t>
+          <t>0.266881 0.136667 0.215117 0.150305 0.233122</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.01064516129031532 0.2119354838709648 0.47225806451612684 0.6714516129032259 -0.9837096774193538</t>
+          <t>-0.008387096774192982 0.18403225806451665 0.39354838709677387 0.6464516129032232 -0.8782258064516139</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.686589646201868</v>
+        <v>1.377998803329863</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.4873255</v>
+        <v>0.487576</v>
       </c>
     </row>
     <row r="31">
@@ -1751,16 +1751,16 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.261388 0.236789 0.0119 0.263289 0.234296</t>
+          <t>0.261164 0.237099 0.007898 0.263596 0.234139</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-0.0641935483870983 0.9456451612903237 1.2495161290322583 -0.4120967741935532 -0.4830645161290319</t>
+          <t>-0.10032258064516314 0.9956451612903245 0.6040322580645163 -0.3625806451612948 -0.5083870967741917</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.862831217481796</v>
+        <v>1.756151040582732</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.49691</v>
+        <v>0.49505975</v>
       </c>
     </row>
     <row r="32">
@@ -1794,16 +1794,16 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.051868 0.022237 0.090201 0.094938 0.115603 0.140141 0.140141 0.115594 0.094914 0.090109 0.020863 0.040583</t>
+          <t>0.051918 0.021808 0.090501 0.094869 0.115324 0.140226 0.140226 0.115322 0.094862 0.090425 0.020485 0.04095</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.1300000000000002 1.159193548387097 -1.4922580645161285 1.8396774193548386 -0.7546774193548391 -0.7709677419354849 -0.35435483870967815 0.4027419354838709 0.5270967741935473 0.18241935483870858 0.7606451612903222 1.4033870967741937</t>
+          <t>-0.1219354838709677 1.0900000000000003 -1.443870967741936 1.8285483870967743 -0.7996774193548394 -0.7572580645161299 -0.340645161290323 0.358870967741934 0.5187096774193544 0.23338709677419417 0.6996774193548384 1.4625806451612904</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>11.2827587408949</v>
+        <v>11.04129198751301</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.5023554545454546</v>
+        <v>0.5024067272727273</v>
       </c>
     </row>
     <row r="33">
@@ -1837,16 +1837,16 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.113026 0.032219 0.094308 0.151262 0.123703 0.123646 0.151316 0.094129 0.030235 0.092441</t>
+          <t>0.113102 0.031453 0.094044 0.151754 0.123158 0.123158 0.151752 0.093958 0.029488 0.093135</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-0.019999999999999858 0.2553225806451609 -1.148225806451613 -1.3787096774193548 -0.6045161290322605 0.9293548387096779 0.41129032258064463 0.6322580645161302 0.48354838709677433 1.4533870967741922</t>
+          <t>-0.0077419354838719956 0.13177419354838737 -1.1908064516129033 -1.2993548387096787 -0.6924193548387105 0.8506451612903227 0.48161290322580463 0.6046774193548391 0.3630645161290322 1.56532258064516</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7.429055749219563</v>
+        <v>7.506445525494277</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.4920345555555556</v>
+        <v>0.4917291111111111</v>
       </c>
     </row>
     <row r="34">
@@ -1880,16 +1880,16 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.055733 0.08602 0.106026 0.145714 0.117877 0.126686 0.141511 0.10193 0.085125 0.038807</t>
+          <t>0.055735 0.085961 0.106768 0.145457 0.117749 0.126536 0.141292 0.102655 0.084944 0.038236</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.07967741935483781 -0.7480645161290328 -1.3659677419354845 -0.5151612903225811 0.4312903225806445 -0.24919354838709978 0.7217741935483882 0.2679032258064532 0.948548387096776 1.3048387096774194</t>
+          <t>0.07999999999999943 -0.7575806451612914 -1.2462903225806448 -0.556612903225808 0.41064516129032363 -0.27338709677419387 0.6864516129032274 0.38483870967741923 0.9193548387096792 1.2127419354838707</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.140395031217492</v>
+        <v>5.622028850156095</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.4925545555555555</v>
+        <v>0.492173</v>
       </c>
     </row>
     <row r="35">
@@ -1923,16 +1923,16 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.233113 0.017081 0.245463 0.243801 0.017892 0.232261</t>
+          <t>0.234572 0.020744 0.24692 0.244227 0.021799 0.228368</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-0.2143548387096814 -0.9772580645161294 -0.06467741935484073 -0.48419354838709755 -0.8587096774193547 0.9235483870967757</t>
+          <t>0.020967741935482457 -0.3864516129032262 0.1703225806451615 -0.41548387096774114 -0.22854838709677447 0.2956451612903228</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.829931815816864</v>
+        <v>0.4910615504682622</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.4944566</v>
+        <v>0.4952602</v>
       </c>
     </row>
     <row r="36">
@@ -1966,16 +1966,16 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.431337 0.410893 0.139707 0.01725 0.000345 0.0</t>
+          <t>0.431344 0.410762 0.140053 0.017396 0.000362 0.0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.00048387096774689614 -0.01048387096773899 0.04064516129032294 -0.09306451612903188 -0.01306451612903226 0.0</t>
+          <t>0.0016129032258080647 -0.03161290322580226 0.09645161290322826 -0.0695161290322582 -0.010322580645161289 0.0</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.01059386056191457</v>
+        <v>0.01524393860561938</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.1486874</v>
+        <v>0.1489008</v>
       </c>
     </row>
     <row r="37">
@@ -2009,16 +2009,16 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.550198 0.028331 0.352479 0.013511 0.056423 0.001421</t>
+          <t>0.551235 0.026242 0.351087 0.012686 0.056325 0.001392</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-0.156935483870968 0.14693548387096753 0.2095161290322572 0.09580645161290335 0.10499999999999982 -0.01919354838709677</t>
+          <t>0.010322580645171614 -0.18999999999999975 -0.015000000000001571 -0.037258064516129084 0.08919354838709645 -0.02387096774193547</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.110688059313215</v>
+        <v>0.0463450312174819</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.2013238</v>
+        <v>0.1997468</v>
       </c>
     </row>
     <row r="38">
@@ -2052,16 +2052,16 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.543517 0.040454 0.339778 0.020858 0.054586 0.002625 3.2e-05</t>
+          <t>0.543638 0.038738 0.339812 0.020353 0.054709 0.002644 3.2e-05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-0.009677419354830482 0.12693548387096712 -0.0346774193548331 -0.06806451612903205 0.22193548387096812 0.05677419354838715 0.005161290322580645</t>
+          <t>0.009838709677415765 -0.14983870967741925 -0.029193548387094634 -0.1495161290322582 0.24177419354838717 0.059838709677419395 0.005161290322580645</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.07454687825182045</v>
+        <v>0.1078178459937564</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.1690408333333333</v>
+        <v>0.1686115</v>
       </c>
     </row>
     <row r="39">
@@ -2095,16 +2095,16 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.731889 0.02486 0.239313 0.005845 0.001044</t>
+          <t>0.732455 0.02299 0.237788 0.006067 0.000138</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.08983870967742415 0.4138709677419353 -0.3270967741935487 0.14129032258064517 0.15806451612903225</t>
+          <t>0.18112903225806212 0.11225806451612882 -0.5730645161290324 0.17709677419354838 0.011935483870967743</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3312998178980239</v>
+        <v>0.4053182622268463</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.13129925</v>
+        <v>0.12932975</v>
       </c>
     </row>
     <row r="40">
@@ -2138,16 +2138,16 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.538813 0.040231 0.345828 0.02123 0.055562 0.002672 3.2e-05</t>
+          <t>0.540922 0.038587 0.34284 0.020535 0.055199 0.002667 3.2e-05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-0.31774193548387536 -0.07483870967741922 0.40483870967742136 0.09725806451612894 0.5590322580645156 0.030967741935483857 0.005</t>
+          <t>0.022419354838709715 -0.3399999999999998 -0.07709677419355386 -0.014838709677419086 0.500483870967741 0.030161290322580664 0.005</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5934153485952172</v>
+        <v>0.3736855359001039</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.1718961666666667</v>
+        <v>0.1700325</v>
       </c>
     </row>
     <row r="41">
@@ -2181,16 +2181,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.516581 0.004778 0.425617 0.001804 0.047839 8.8e-05 0.0</t>
+          <t>0.519039 0.006102 0.422715 0.00225 0.046613 0.000106 0.0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.18854838709677027 -0.1611290322580645 -0.2970967741935411 -0.9337096774193548 0.6580645161290323 0.014193548387096775 0.0</t>
+          <t>0.5850000000000076 0.052419354838709645 -0.765161290322576 -0.8617741935483872 0.4603225806451617 0.017096774193548388 0.0</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.454843678459932</v>
+        <v>1.885288527575445</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.1755366666666667</v>
+        <v>0.1742106666666667</v>
       </c>
     </row>
     <row r="42">
@@ -2224,16 +2224,16 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.692324 0.024822 0.266229 0.006301 0.01383</t>
+          <t>0.692168 0.028174 0.266462 0.00797 0.013653</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.24354838709677604 -0.9337096774193547 -0.6751612903225844 -0.29983870967741943 2.230645161290323</t>
+          <t>0.21838709677418813 -0.393064516129032 -0.6375806451612968 -0.030645161290322732 2.2020967741935484</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.452653433923004</v>
+        <v>5.458871045785646</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.15787575</v>
+        <v>0.159905</v>
       </c>
     </row>
     <row r="43">
@@ -2267,16 +2267,16 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.500388 0.005283 0.488693 0.001434 0.002319 7.9e-05 0.0</t>
+          <t>0.500391 0.005232 0.488692 0.001377 0.002084 7.4e-05 0.0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-0.011935483870952819 0.18290322580645169 0.010806451612900603 -0.6906451612903225 0.30790322580645163 0.0029032258064516127 -0.09290322580645162</t>
+          <t>-0.011451612903214876 0.1746774193548387 0.010645161290324274 -0.6998387096774193 0.27 0.0020967741935483866 -0.09290322580645162</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6141473985431837</v>
+        <v>0.6020662851196668</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.166107</v>
+        <v>0.1659088333333333</v>
       </c>
     </row>
     <row r="44">
@@ -2353,16 +2353,16 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.553356 0.028493 0.354502 0.013588 0.056747 0.001429</t>
+          <t>0.553937 0.02636 0.35384 0.012786 0.056767 0.001403</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-0.11290322580645709 0.6946774193548391 0.1470967741935433 0.7843548387096774 -0.3812903225806449 0.17693548387096772</t>
+          <t>-0.019193548387093588 0.35064516129032297 0.04032258064515685 0.6550000000000001 -0.3780645161290321 0.17274193548387096</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.308862304890739</v>
+        <v>0.7267438865764826</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.2024788</v>
+        <v>0.2012962</v>
       </c>
     </row>
     <row r="46">
@@ -2396,16 +2396,16 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.549386 0.028289 0.351959 0.013491 0.05634 0.001419</t>
+          <t>0.549143 0.026112 0.352535 0.012739 0.056558 0.001398</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.3588709677419407 0.3659677419354839 -0.5754838709677356 0.10951612903225791 -0.1348387096774188 0.01854838709677417</t>
+          <t>0.31967741935484506 0.014838709677419086 -0.48258064516128946 -0.011774193548387121 -0.09967741935483879 0.01516129032258063</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6244217481789764</v>
+        <v>0.3456020031217514</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.201027</v>
+        <v>0.2005242</v>
       </c>
     </row>
     <row r="47">
@@ -2439,16 +2439,16 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.749845 0.243914 0.000271</t>
+          <t>0.749772 0.244148 0.000358</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.35500000000000137 -1.0912903225806487 -0.22661290322580646</t>
+          <t>0.34322580645161593 -1.053548387096776 -0.21258064516129033</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.368292976066606</v>
+        <v>1.27295868886577</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0.122228</v>
+        <v>0.122432</v>
       </c>
     </row>
     <row r="48">
@@ -2482,16 +2482,16 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.717648 0.005117 0.277581 0.000181</t>
+          <t>0.71764 0.005353 0.277596 0.000221</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-0.0024193548387255273 0.0746774193548387 0.005000000000000524 0.007741935483870969</t>
+          <t>-0.0037096774193719788 0.11274193548387097 0.007419354838708144 0.014193548387096775</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.005667507804370527</v>
+        <v>0.01298100936524464</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0.1869406666666667</v>
+        <v>0.1870693333333333</v>
       </c>
     </row>
     <row r="49">
@@ -2525,16 +2525,16 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.543859 0.026904 0.350218 0.012945 0.056681 0.001382 0.000105</t>
+          <t>0.543801 0.025221 0.350467 0.012602 0.056551 0.00144 3.3e-05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.0682258064516024 0.02838709677419396 -1.5214516129032298 0.02612903225806463 -0.8669354838709674 0.0096774193548387 -0.019193548387096773</t>
+          <t>1.0588709677419246 -0.24306451612903193 -1.4812903225806493 -0.029193548387096594 -0.8879032258064521 0.01903225806451614 -0.030806451612903223</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.209449115504672</v>
+        <v>4.165044771071789</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0.1667398333333333</v>
+        <v>0.1662605</v>
       </c>
     </row>
     <row r="50">
@@ -2568,16 +2568,16 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.423678 0.01766 0.406415 0.011291 0.129875 0.001804 0.013826</t>
+          <t>0.430669 0.016395 0.399801 0.009888 0.128026 0.001584 0.01366</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-1.1037096774193529 -0.15387096774193548 0.8656451612903243 0.07983870967741946 0.8901612903225801 -0.000806451612903228 0.15645161290322587</t>
+          <t>0.023870967741941453 -0.3579032258064514 -0.20112903225806422 -0.14645161290322595 0.5919354838709688 -0.036290322580645185 0.12967741935483887</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.814431971904264</v>
+        <v>0.5590863423517183</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0.2459731666666667</v>
+        <v>0.2412741666666667</v>
       </c>
     </row>
     <row r="51">
@@ -2611,16 +2611,16 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.426428 0.021662 0.407865 0.013804 0.12992 0.002198 0.013782</t>
+          <t>0.432494 0.019169 0.402234 0.0117 0.12851 0.001869 0.013678</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-1.006129032258068 0.8275806451612904 0.7649999999999996 0.713225806451613 0.6314516129032262 0.2261290322580645 0.3683870967741938</t>
+          <t>-0.027741935483871855 0.42548387096774165 -0.1432258064516129 0.3738709677419356 0.4040322580645173 0.17306451612903226 0.3516129032258064</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.376675936524461</v>
+        <v>0.6589242976066606</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.2486943333333333</v>
+        <v>0.2440316666666667</v>
       </c>
     </row>
     <row r="52">
@@ -2654,16 +2654,16 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.728387 0.024743 0.238227 0.005818 0.001059</t>
+          <t>0.728907 0.025986 0.236498 0.00667 0.003573</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-0.082419354838716 -0.23435483870967733 0.2712903225806434 0.027096774193548487 -0.2664516129032258</t>
+          <t>0.001451612903213828 -0.033870967741935785 -0.0075806451612889505 0.16451612903225807 0.13903225806451613</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.2070442767950052</v>
+        <v>0.04760234131113421</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0.13072175</v>
+        <v>0.133321</v>
       </c>
     </row>
     <row r="53">
@@ -2697,16 +2697,16 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.556956 0.200191 0.186836 0.063246 0.001776 0.00011</t>
+          <t>0.559941 0.195893 0.18283 0.062306 0.001577 3.4e-05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-0.4301612903225766 -0.2596774193548388 1.3424193548387093 0.6404838709677412 0.15935483870967745 0.017741935483870968</t>
+          <t>0.05129032258065169 -0.9529032258064511 0.6962903225806432 0.48887096774193534 0.12725806451612906 0.005483870967741935</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.490489151925073</v>
+        <v>1.650694979188343</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.154251</v>
+        <v>0.1509898</v>
       </c>
     </row>
     <row r="54">
@@ -2740,16 +2740,16 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.558708 0.028828 0.346004 0.013262 0.055383 0.001395</t>
+          <t>0.558832 0.026714 0.346014 0.012503 0.055508 0.001372</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-0.0295161290322652 0.5135483870967741 0.007741935483869757 0.04499999999999996 -0.05145161290322578 0.09209677419354839</t>
+          <t>-0.009516129032263105 0.17258064516129057 0.009354838709677822 -0.0774193548387096 -0.03129032258064512 0.08838709677419355</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.2778171696149847</v>
+        <v>0.04474726847034357</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0.1978258</v>
+        <v>0.1970286</v>
       </c>
     </row>
     <row r="55">
@@ -2783,16 +2783,16 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.713583 0.040715 0.232067 0.011029 0.000563 1e-05</t>
+          <t>0.713601 0.039431 0.232202 0.011441 0.000276 3e-06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.08387096774192983 -0.22467741935483845 -0.21532258064516177 -0.06419354838709662 0.09080645161290324 0.0016129032258064518</t>
+          <t>0.0867741935483933 -0.4317741935483869 -0.19354838709677527 0.0022580645161290524 0.044516129032258066 0.00048387096774193554</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.1162473204994788</v>
+        <v>0.2334067117585862</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.1080476</v>
+        <v>0.1078554</v>
       </c>
     </row>
     <row r="56">
@@ -2826,16 +2826,16 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.776028 0.006958 0.223131 0.000304</t>
+          <t>0.776047 0.006388 0.223096 0.000178</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-0.030806451612893745 0.9393548387096773 0.07806451612902975 0.04903225806451613</t>
+          <t>-0.0277419354838629 0.8474193548387097 0.072419354838706 0.02870967741935484</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8918347814776262</v>
+        <v>0.7249579864724235</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0.1513773333333333</v>
+        <v>0.151038</v>
       </c>
     </row>
     <row r="57">
@@ -2869,16 +2869,16 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.491739 0.025211 0.358729 0.019079 0.086069 0.005563 0.006064 0.000568 1e-06 0.0</t>
+          <t>0.491803 0.024557 0.358649 0.018739 0.086201 0.005531 0.006084 0.000568 1e-06 0.0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.13822580645161237 -1.3914516129032257 -0.2616129032257995 -1.0296774193548388 0.9037096774193566 0.23274193548387095 0.23112903225806455 0.05161290322580646 0.00016129032258064516 -0.00016129032258064516</t>
+          <t>0.14854838709677504 -1.4969354838709679 -0.2745161290322551 -1.0845161290322582 0.9250000000000007 0.2275806451612903 0.23435483870967747 0.05161290322580646 0.00016129032258064516 -0.00016129032258064516</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.010865426638917</v>
+        <v>4.479420889698232</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.1347072222222222</v>
+        <v>0.1345576666666667</v>
       </c>
     </row>
     <row r="58">
@@ -2912,16 +2912,16 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.561437 0.02891 0.35968 0.013787 0.057576 0.00145</t>
+          <t>0.562455 0.026775 0.358348 0.012949 0.05749 0.001421</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-0.1866129032258185 0.763225806451613 -0.20500000000000357 0.7167741935483871 2.522096774193549 0.07338709677419353</t>
+          <t>-0.022419354838709715 0.4188709677419353 -0.4198387096774229 0.5816129032258065 2.5082258064516134 0.06870967741935484</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.539486056191476</v>
+        <v>6.986411342351722</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.205437</v>
+        <v>0.2038766</v>
       </c>
     </row>
     <row r="59">
@@ -2955,16 +2955,16 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.738261 0.008534 0.237954 0.000522</t>
+          <t>0.73796 0.005425 0.239043 0.000366</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1.1411290322580552 -0.035806451612903224 -3.536451612903226 0.05548387096774194</t>
+          <t>1.0925806451612818 -0.537258064516129 -3.3608064516129024 0.030322580645161294</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>13.81302604058271</v>
+        <v>12.77831815816855</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0.1620026666666667</v>
+        <v>0.1615363333333333</v>
       </c>
     </row>
     <row r="60">
@@ -2998,16 +2998,16 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.465388 0.368792 0.11675 0.059857 0.011576 8e-06</t>
+          <t>0.465391 0.368747 0.116814 0.059941 0.011639 9e-06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.04741935483871233 -0.8959677419354801 1.2119354838709688 2.653225806451613 0.6919354838709677 -0.10032258064516131</t>
+          <t>0.047903225806450275 -0.903225806451612 1.2222580645161294 2.6667741935483873 0.7020967741935484 -0.10016129032258066</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>9.802240920915708</v>
+        <v>9.926683116545266</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0.1656414</v>
+        <v>0.1657598</v>
       </c>
     </row>
     <row r="61">
@@ -3041,16 +3041,16 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.292473 0.294003 0.288187 0.087994 0.041488 0.008316 0.000716 0.0</t>
+          <t>0.292456 0.294241 0.287798 0.088498 0.041497 0.008367 0.000725 1e-06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.011451612903223829 -0.1470967741935433 -0.08032258064516104 0.3251612903225813 0.5595161290322581 1.3412903225806452 0.11548387096774193 -0.00016129032258064516</t>
+          <t>0.008709677419354595 -0.10870967741935612 -0.14306451612903656 0.4064516129032249 0.5609677419354842 1.349516129032258 0.11693548387096774 0.0</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.259404760665972</v>
+        <v>2.347116519250781</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.1923124285714286</v>
+        <v>0.1925015714285714</v>
       </c>
     </row>
     <row r="62">
@@ -3084,16 +3084,16 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.703558 0.085826 0.200042 0.000153</t>
+          <t>0.70349 0.08784 0.199464 0.000168</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.35516129032258664 -1.2582258064516134 -0.7093548387096795 -0.06838709677419355</t>
+          <t>0.3441935483870918 -0.9333870967741936 -0.8025806451612917 -0.06596774193548388</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.217132804370456</v>
+        <v>1.638168106139437</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0.162123</v>
+        <v>0.162424</v>
       </c>
     </row>
     <row r="63">
@@ -3127,16 +3127,16 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.680104 0.028039 0.265914 0.006817 0.022146</t>
+          <t>0.679992 0.031095 0.265926 0.008298 0.020934</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-0.009516129032245198 0.13790322580645187 -0.014677419354839958 0.2522580645161291 0.12112903225806423</t>
+          <t>-0.027580645161277617 0.6308064516129035 -0.012741935483870282 0.49112903225806454 -0.07435483870967736</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.09762965660770014</v>
+        <v>0.645576196670135</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0.1672255</v>
+        <v>0.16789425</v>
       </c>
     </row>
     <row r="64">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.733839 0.024865 0.238079 0.005825 0.000444</t>
+          <t>0.733847 0.023034 0.23824 0.006078 0.000138</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.008225806451616652 0.3248387096774197 -0.06274193548387104 0.15048387096774204 0.07145161290322581</t>
+          <t>0.009516129032263105 0.029516129032257928 -0.03677419354838806 0.19129032258064524 0.02209677419354839</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.1372751300728411</v>
+        <v>0.03939435483870986</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.1300685</v>
+        <v>0.129575</v>
       </c>
     </row>
     <row r="65">
@@ -3213,16 +3213,16 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.245399 0.236702 0.231049 0.170153 0.07477 0.039156 0.009613 0.002928 0.000468 2.3e-05 0.0 0.0</t>
+          <t>0.245375 0.236952 0.230651 0.170269 0.074899 0.039205 0.009657 0.002937 0.000471 2.4e-05 0.0 0.0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-0.1629032258064489 1.4303225806451592 -1.4870967741935495 0.20709677419354958 -0.4998387096774179 0.9946774193548397 0.7501612903225806 0.34322580645161294 0.07548387096774194 0.003709677419354839 0.0 0.0</t>
+          <t>-0.16677419354838377 1.4706451612903206 -1.5512903225806478 0.22580645161290522 -0.4790322580645162 1.0025806451612902 0.7572580645161291 0.3446774193548387 0.07596774193548388 0.0038709677419354843 0.0 0.0</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.252185431841829</v>
+        <v>6.580769276795008</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.1623858181818182</v>
+        <v>0.1624697272727272</v>
       </c>
     </row>
     <row r="66">
@@ -3256,16 +3256,16 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.497197 0.025827 0.357536 0.019015 0.085775 0.005544 0.006044 0.000566 1e-06 0.0</t>
+          <t>0.497261 0.025175 0.35746 0.018676 0.085907 0.005512 0.006063 0.000566 1e-06 0.0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.10112903225806269 -1.0153225806451611 -0.24112903225805946 -0.8659677419354836 0.8680645161290319 0.4079032258064517 0.30741935483870964 0.03516129032258065 0.00016129032258064516 0.0</t>
+          <t>0.11145161290322536 -1.1204838709677416 -0.2533870967741918 -0.9206451612903223 0.889354838709676 0.40274193548387105 0.3104838709677419 0.03516129032258065 0.00016129032258064516 0.0</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.864814412070756</v>
+        <v>3.230487773152961</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.1343331111111111</v>
+        <v>0.1341843333333333</v>
       </c>
     </row>
     <row r="67">
@@ -3299,16 +3299,16 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.321817 0.287114 0.204382 0.13996 0.042564 0.015912 0.003401 0.000138 2e-06 0.0</t>
+          <t>0.32401 0.285741 0.202977 0.139739 0.04256 0.015943 0.003428 0.000141 2e-06 0.0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-0.2682258064516081 -0.6548387096774206 0.3572580645161282 1.0761290322580663 0.8301612903225805 0.9256451612903225 0.17725806451612905 0.022258064516129033 0.0003225806451612903 0.0</t>
+          <t>0.08548387096774684 -0.8762903225806397 0.13064516129031895 1.040483870967744 0.8295161290322584 0.9306451612903225 0.1816129032258065 0.02274193548387097 0.0003225806451612903 0.0</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.364348517169617</v>
+        <v>3.46256503642039</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.1541068888888889</v>
+        <v>0.1536042222222222</v>
       </c>
     </row>
     <row r="68">
@@ -3342,16 +3342,16 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.554984 0.016713 0.356006 0.006251 0.057064 0.000284</t>
+          <t>0.554577 0.016047 0.356635 0.006422 0.057315 0.000403</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.586774193548392 -0.47225806451612906 -0.81983870967742 -0.2714516129032259 -0.42451612903225844 -0.001612903225806447</t>
+          <t>0.521129032258062 -0.5796774193548387 -0.7183870967741958 -0.24387096774193553 -0.38403225806451635 0.017580645161290324</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.493369667013535</v>
+        <v>1.330944302809574</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.1954308</v>
+        <v>0.1959716</v>
       </c>
     </row>
   </sheetData>
